--- a/Spell_Caster_Save_File.xlsx
+++ b/Spell_Caster_Save_File.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -164,12 +164,45 @@
   <si>
     <t>saved</t>
   </si>
+  <si>
+    <t>tower_entrance</t>
+  </si>
+  <si>
+    <t>tower1</t>
+  </si>
+  <si>
+    <t>tower2</t>
+  </si>
+  <si>
+    <t>tower3</t>
+  </si>
+  <si>
+    <t>tower4</t>
+  </si>
+  <si>
+    <t>tower5</t>
+  </si>
+  <si>
+    <t>dungeon1</t>
+  </si>
+  <si>
+    <t>dungeon2</t>
+  </si>
+  <si>
+    <t>dungeon3</t>
+  </si>
+  <si>
+    <t>dungeon4</t>
+  </si>
+  <si>
+    <t>dungeon5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -184,13 +217,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-    </font>
     <font/>
-    <font>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -242,20 +269,17 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,10 +957,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -957,7 +981,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3"/>
@@ -965,7 +989,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3"/>
@@ -973,7 +997,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3"/>
@@ -989,7 +1013,7 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
@@ -1005,7 +1029,7 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3"/>
@@ -1021,7 +1045,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3"/>
@@ -1029,7 +1053,7 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3"/>
@@ -1037,7 +1061,7 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="3"/>
@@ -1045,7 +1069,7 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="3"/>
@@ -1053,7 +1077,7 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="3"/>
@@ -1061,7 +1085,7 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="3"/>
@@ -1069,7 +1093,7 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="3"/>
@@ -1077,7 +1101,7 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3"/>
@@ -1085,7 +1109,7 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="3"/>
@@ -1093,7 +1117,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="3"/>
@@ -1101,7 +1125,7 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="3"/>
@@ -1109,7 +1133,7 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="3"/>
@@ -1117,7 +1141,7 @@
       <c r="D23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="3"/>
@@ -1125,7 +1149,7 @@
       <c r="D24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="3"/>
@@ -1133,7 +1157,7 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="3"/>
@@ -5181,19 +5205,19 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12209,25 +12233,25 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -21267,53 +21291,75 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="3"/>
+      <c r="A13" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
+      <c r="A14" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
+      <c r="A15" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
+      <c r="A16" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17">
